--- a/trunk/ tsp01-contratos-clientes/BSC/Proposición de Valor_INEI.xlsx
+++ b/trunk/ tsp01-contratos-clientes/BSC/Proposición de Valor_INEI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Estrategia</t>
   </si>
@@ -46,6 +46,36 @@
   </si>
   <si>
     <t>- Rediseño de procesos de producción estadística                                                                                                           - Capacidad de la Infraestructura física y tecnológica</t>
+  </si>
+  <si>
+    <t>Factores Básicos</t>
+  </si>
+  <si>
+    <t>Factores Diferenciadores</t>
+  </si>
+  <si>
+    <t>Veracidad</t>
+  </si>
+  <si>
+    <t>Información oportuna</t>
+  </si>
+  <si>
+    <t>Calidad</t>
+  </si>
+  <si>
+    <t>Productos ofrecidos</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>Canales de información</t>
+  </si>
+  <si>
+    <t>Metodologías utilizadas</t>
+  </si>
+  <si>
+    <t>Investigaciones estadísticas</t>
   </si>
 </sst>
 </file>
@@ -122,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -142,6 +172,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E5"/>
+  <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -448,49 +479,95 @@
     <col min="3" max="5" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="42.75" customHeight="1">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:5">
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="42.75" customHeight="1">
+      <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="60">
-      <c r="B3" s="2" t="s">
+    <row r="10" spans="2:5" ht="60">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="2:5" ht="75">
-      <c r="B4" s="4" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" ht="75">
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="2:5" ht="60">
-      <c r="B5" s="2" t="s">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="2:5" ht="60">
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="6" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="6" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
